--- a/Q3_Problem_Statement.xlsx
+++ b/Q3_Problem_Statement.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thoufiq/THOUFIQ/techTFQ/YouTube/VIDEOS/30 SQL Interview Queries/Video_Q3/Video_Q3_Scripts/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thoufiq/THOUFIQ/techTFQ/YouTube/VIDEOS/30 SQL Interview Queries/Video_Q6/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAA4D26A-E92C-4A43-B06B-A42E6FDDA820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C87F994A-F0D1-6940-BC0B-F03387CD127F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{F52B1AC0-829F-0D4F-9731-C4603F8BFC93}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{676511AD-201D-B74F-BBAA-90083F34A7EA}"/>
   </bookViews>
   <sheets>
-    <sheet name="Video Q3" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,62 +36,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="7">
   <si>
-    <t>Hyundai Tucson</t>
+    <t>TEST_ID</t>
   </si>
   <si>
-    <t>Toyota Rav4</t>
-  </si>
-  <si>
-    <t>Kia Sportage</t>
-  </si>
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>CAR</t>
-  </si>
-  <si>
-    <t>LENGTH</t>
-  </si>
-  <si>
-    <t>WIDTH</t>
-  </si>
-  <si>
-    <t>HEIGHT</t>
-  </si>
-  <si>
-    <t>INPUT</t>
-  </si>
-  <si>
-    <t>EXPECTED OUTPUT</t>
+    <t>MARKS</t>
   </si>
   <si>
     <r>
       <rPr>
         <b/>
+        <i/>
         <u/>
         <sz val="14"/>
         <color theme="0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>PROBLEM STATEMENT:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> Write a sql query to return the footer values from input table, meaning all the last non null values from each field as shown in expected output.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Video #3 -</t>
+      <t xml:space="preserve">VIDEO #6 </t>
     </r>
     <r>
       <rPr>
@@ -101,27 +64,56 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> Fetch Footer values</t>
+      <t>- Student Performance</t>
     </r>
+  </si>
+  <si>
+    <t>INPUT</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>PROBLEM STATEMENT:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+You are given a table having the marks of one student in every test. 
+You have to output the tests in which the student has improved his performance. 
+For a student to improve his performance he has to score more than the previous test.
+Provide 2 solutions, one including the first test score and second excluding it.</t>
+    </r>
+  </si>
+  <si>
+    <t>OUTPUT - 1</t>
+  </si>
+  <si>
+    <t>OUTPUT - 2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -131,13 +123,21 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="14"/>
+      <sz val="12"/>
       <color theme="0"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
+      <i/>
       <u/>
       <sz val="14"/>
       <color theme="0"/>
@@ -146,14 +146,27 @@
     </font>
     <font>
       <b/>
-      <i/>
-      <sz val="14"/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,7 +175,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.249977111117893"/>
+        <fgColor theme="3" tint="9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -174,24 +187,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.89999084444715716"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -200,7 +201,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -215,10 +216,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
@@ -230,37 +231,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -306,7 +277,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -316,25 +287,27 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -344,50 +317,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -416,90 +346,52 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -834,213 +726,268 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC654931-91D8-F346-84BB-522F9548E124}">
-  <dimension ref="A1:L17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BA1ABCF-6E39-A746-B912-8E414A3D63A8}">
+  <dimension ref="B1:N17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="200" zoomScaleNormal="200" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="1"/>
-    <col min="2" max="2" width="10.83203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.83203125" style="1" customWidth="1"/>
-    <col min="4" max="6" width="10.83203125" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="1" width="10.83203125" style="7"/>
+    <col min="2" max="3" width="12.83203125" style="7" customWidth="1"/>
+    <col min="4" max="5" width="10.83203125" style="7"/>
+    <col min="6" max="7" width="12.83203125" style="7" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="7"/>
+    <col min="9" max="10" width="12.83203125" style="7" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-    </row>
-    <row r="2" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="28" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-    </row>
-    <row r="3" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-    </row>
-    <row r="4" spans="1:12" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="28"/>
-    </row>
-    <row r="5" spans="1:12" ht="20" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="26"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="27"/>
-    </row>
-    <row r="7" spans="1:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="3" t="s">
+    <row r="1" spans="2:14" s="3" customFormat="1" ht="19" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+    </row>
+    <row r="2" spans="2:14" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+    </row>
+    <row r="3" spans="2:14" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+    </row>
+    <row r="4" spans="2:14" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+    </row>
+    <row r="5" spans="2:14" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+    </row>
+    <row r="6" spans="2:14" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+    </row>
+    <row r="7" spans="2:14" s="1" customFormat="1" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+    </row>
+    <row r="8" spans="2:14" ht="19" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+    </row>
+    <row r="9" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="4" t="s">
+      <c r="C10" s="13"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="G10" s="25"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B8" s="6">
+      <c r="J10" s="25"/>
+    </row>
+    <row r="11" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B11" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="F11" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="8">
-        <v>15</v>
-      </c>
-      <c r="E8" s="8">
-        <v>6</v>
-      </c>
-      <c r="F8" s="9"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B9" s="18">
-        <v>2</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B10" s="10">
-        <v>3</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="12">
-        <v>12</v>
-      </c>
-      <c r="E10" s="12">
-        <v>8</v>
-      </c>
-      <c r="F10" s="13">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B11" s="18">
-        <v>4</v>
-      </c>
-      <c r="C11" s="19" t="s">
+      <c r="G11" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20">
-        <v>15</v>
-      </c>
-      <c r="F11" s="21"/>
-    </row>
-    <row r="12" spans="1:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I11" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="J11" s="17" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B12" s="14">
-        <v>5</v>
-      </c>
-      <c r="C12" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="17">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="20" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="27"/>
-    </row>
-    <row r="16" spans="1:12" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="17" spans="3:6" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="22" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="23">
-        <v>12</v>
-      </c>
-      <c r="E17" s="23">
-        <v>15</v>
-      </c>
-      <c r="F17" s="24">
-        <v>18</v>
+        <v>100</v>
+      </c>
+      <c r="C12" s="15">
+        <v>55</v>
+      </c>
+      <c r="F12" s="22">
+        <v>100</v>
+      </c>
+      <c r="G12" s="23">
+        <v>55</v>
+      </c>
+      <c r="I12" s="22">
+        <v>102</v>
+      </c>
+      <c r="J12" s="23">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="8">
+        <v>101</v>
+      </c>
+      <c r="C13" s="9">
+        <v>55</v>
+      </c>
+      <c r="F13" s="18">
+        <v>102</v>
+      </c>
+      <c r="G13" s="19">
+        <v>60</v>
+      </c>
+      <c r="I13" s="20">
+        <v>105</v>
+      </c>
+      <c r="J13" s="21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="2:14" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="8">
+        <v>102</v>
+      </c>
+      <c r="C14" s="9">
+        <v>60</v>
+      </c>
+      <c r="F14" s="20">
+        <v>105</v>
+      </c>
+      <c r="G14" s="21">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B15" s="8">
+        <v>103</v>
+      </c>
+      <c r="C15" s="9">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="B16" s="8">
+        <v>104</v>
+      </c>
+      <c r="C16" s="9">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B17" s="10">
+        <v>105</v>
+      </c>
+      <c r="C17" s="11">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="B2:K4"/>
-    <mergeCell ref="A1:L1"/>
+  <mergeCells count="5">
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B2:J7"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="I10:J10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
